--- a/経済.xlsx
+++ b/経済.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentokobayashi\Documents\ThirdRepo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F0FF4EDD-F9B8-4E73-9E2D-B10003912152}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="7380" tabRatio="690"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="9672" windowHeight="7380" tabRatio="690" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="経済史 (簡易版)" sheetId="12" r:id="rId1"/>
@@ -15,18 +21,19 @@
     <sheet name="円安とインフレ" sheetId="9" r:id="rId6"/>
     <sheet name="郵政民営化" sheetId="10" r:id="rId7"/>
     <sheet name="債券" sheetId="11" r:id="rId8"/>
+    <sheet name="test" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>kobayashik114</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -334,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -350,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D45" authorId="0">
+    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D58" authorId="0">
+    <comment ref="D58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -437,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0">
+    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -481,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D63" authorId="0">
+    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E63" authorId="0">
+    <comment ref="E63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -549,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0">
+    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -564,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0">
+    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -580,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0">
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="0">
+    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -615,12 +622,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>kobayashik114</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -637,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -653,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -671,7 +678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -687,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -702,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -721,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -737,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -752,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -771,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -787,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -802,7 +809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -820,7 +827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -835,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -850,7 +857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -866,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -881,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -896,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -912,7 +919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -928,7 +935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -944,7 +951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -960,7 +967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -975,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D45" authorId="0">
+    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -990,7 +997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1005,7 +1012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D58" authorId="0">
+    <comment ref="D58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0">
+    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1104,7 +1111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D63" authorId="0">
+    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1119,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E63" authorId="0">
+    <comment ref="E63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1143,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0">
+    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1158,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0">
+    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1174,7 +1181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0">
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="0">
+    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
       <text>
         <r>
           <rPr>
@@ -4258,7 +4265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4685,6 +4692,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4706,7 +4716,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4771,7 +4787,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4828,7 +4850,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4897,20 +4925,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1209675" y="2771775"/>
-          <a:ext cx="762000" cy="838200"/>
+          <a:off x="1133475" y="2710815"/>
+          <a:ext cx="685800" cy="819150"/>
           <a:chOff x="1219200" y="5572125"/>
           <a:chExt cx="762000" cy="838200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="グループ化 9"/>
+          <xdr:cNvPr id="10" name="グループ化 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4923,7 +4963,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="二等辺三角形 11"/>
+            <xdr:cNvPr id="12" name="二等辺三角形 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4962,7 +5008,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="スマイル 12"/>
+            <xdr:cNvPr id="13" name="スマイル 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5002,7 +5054,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5060,7 +5118,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="下矢印 13"/>
+        <xdr:cNvPr id="14" name="下矢印 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5114,7 +5178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14" descr="http://www.civillink.net/fsozai/sozai/okane.gif"/>
+        <xdr:cNvPr id="15" name="図 14" descr="http://www.civillink.net/fsozai/sozai/okane.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5169,7 +5239,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="下矢印 15"/>
+        <xdr:cNvPr id="16" name="下矢印 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5223,7 +5299,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="屈折矢印 16"/>
+        <xdr:cNvPr id="17" name="屈折矢印 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5281,7 +5363,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17" descr="債権 イラスト に対する画像結果"/>
+        <xdr:cNvPr id="18" name="図 17" descr="債権 イラスト に対する画像結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5341,7 +5429,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18" descr="http://www.civillink.net/fsozai/sozai/okane.gif"/>
+        <xdr:cNvPr id="19" name="図 18" descr="http://www.civillink.net/fsozai/sozai/okane.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5396,7 +5490,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5457,7 +5557,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5518,7 +5624,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5579,20 +5691,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="23" name="グループ化 22"/>
+        <xdr:cNvPr id="23" name="グループ化 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="914400" y="3541350"/>
-          <a:ext cx="990600" cy="849675"/>
+          <a:off x="838200" y="3465150"/>
+          <a:ext cx="914400" cy="830625"/>
           <a:chOff x="419100" y="6475050"/>
           <a:chExt cx="990600" cy="849675"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="直方体 23"/>
+          <xdr:cNvPr id="24" name="直方体 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5643,7 +5767,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="直方体 24"/>
+          <xdr:cNvPr id="25" name="直方体 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5694,7 +5824,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="フローチャート : 抜出し 25"/>
+          <xdr:cNvPr id="26" name="フローチャート : 抜出し 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5731,7 +5867,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="フローチャート: データ 26"/>
+          <xdr:cNvPr id="27" name="フローチャート: データ 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5784,7 +5926,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5845,7 +5993,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="下矢印 28"/>
+        <xdr:cNvPr id="29" name="下矢印 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5897,7 +6051,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5954,7 +6114,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="下矢印 30"/>
+        <xdr:cNvPr id="31" name="下矢印 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6008,7 +6174,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="下矢印 31"/>
+        <xdr:cNvPr id="32" name="下矢印 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6062,7 +6234,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="下矢印 32"/>
+        <xdr:cNvPr id="33" name="下矢印 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6116,20 +6294,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="グループ化 33"/>
+        <xdr:cNvPr id="34" name="グループ化 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4943475" y="400050"/>
-          <a:ext cx="762000" cy="838200"/>
+          <a:off x="4410075" y="392430"/>
+          <a:ext cx="685800" cy="819150"/>
           <a:chOff x="1219200" y="5572125"/>
           <a:chExt cx="762000" cy="838200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="35" name="グループ化 34"/>
+          <xdr:cNvPr id="35" name="グループ化 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6142,7 +6332,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="二等辺三角形 36"/>
+            <xdr:cNvPr id="37" name="二等辺三角形 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6181,7 +6377,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="スマイル 37"/>
+            <xdr:cNvPr id="38" name="スマイル 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6221,7 +6423,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+          <xdr:cNvPr id="36" name="正方形/長方形 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6279,20 +6487,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="39" name="グループ化 38"/>
+        <xdr:cNvPr id="39" name="グループ化 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4943475" y="1323975"/>
-          <a:ext cx="762000" cy="838200"/>
+          <a:off x="4410075" y="1297305"/>
+          <a:ext cx="685800" cy="819150"/>
           <a:chOff x="1219200" y="5572125"/>
           <a:chExt cx="762000" cy="838200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="40" name="グループ化 39"/>
+          <xdr:cNvPr id="40" name="グループ化 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6305,7 +6525,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="二等辺三角形 41"/>
+            <xdr:cNvPr id="42" name="二等辺三角形 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6344,7 +6570,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="スマイル 42"/>
+            <xdr:cNvPr id="43" name="スマイル 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6384,7 +6616,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6442,20 +6680,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="44" name="グループ化 43"/>
+        <xdr:cNvPr id="44" name="グループ化 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4943475" y="2209800"/>
-          <a:ext cx="762000" cy="838200"/>
+          <a:off x="4410075" y="2164080"/>
+          <a:ext cx="685800" cy="819150"/>
           <a:chOff x="1219200" y="5572125"/>
           <a:chExt cx="762000" cy="838200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="45" name="グループ化 44"/>
+          <xdr:cNvPr id="45" name="グループ化 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6468,7 +6718,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="二等辺三角形 46"/>
+            <xdr:cNvPr id="47" name="二等辺三角形 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6507,7 +6763,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="スマイル 47"/>
+            <xdr:cNvPr id="48" name="スマイル 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6547,7 +6809,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+          <xdr:cNvPr id="46" name="正方形/長方形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6605,7 +6873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48"/>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6643,7 +6917,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49"/>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6681,7 +6961,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50"/>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6719,7 +7005,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6800,7 +7092,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="図 1024"/>
+        <xdr:cNvPr id="1025" name="図 1024">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6838,7 +7136,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="正方形/長方形 118"/>
+        <xdr:cNvPr id="119" name="正方形/長方形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6903,7 +7207,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6968,7 +7278,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7025,7 +7341,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7094,20 +7416,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1209675" y="4143375"/>
-          <a:ext cx="762000" cy="838200"/>
+          <a:off x="1133475" y="4051935"/>
+          <a:ext cx="685800" cy="819150"/>
           <a:chOff x="1219200" y="5572125"/>
           <a:chExt cx="762000" cy="838200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="6" name="グループ化 5"/>
+          <xdr:cNvPr id="6" name="グループ化 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7120,7 +7454,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="二等辺三角形 3"/>
+            <xdr:cNvPr id="4" name="二等辺三角形 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7159,7 +7499,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="スマイル 4"/>
+            <xdr:cNvPr id="5" name="スマイル 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7199,7 +7545,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7257,7 +7609,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="下矢印 15"/>
+        <xdr:cNvPr id="16" name="下矢印 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7311,7 +7669,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="下矢印 18"/>
+        <xdr:cNvPr id="19" name="下矢印 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7365,7 +7729,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="屈折矢印 19"/>
+        <xdr:cNvPr id="20" name="屈折矢印 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7423,7 +7793,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20" descr="債権 イラスト に対する画像結果"/>
+        <xdr:cNvPr id="21" name="図 20" descr="債権 イラスト に対する画像結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7483,7 +7859,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21" descr="http://www.civillink.net/fsozai/sozai/okane.gif"/>
+        <xdr:cNvPr id="22" name="図 21" descr="http://www.civillink.net/fsozai/sozai/okane.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7538,7 +7920,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7599,7 +7987,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7660,20 +8054,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="グループ化 30"/>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="914400" y="4912950"/>
-          <a:ext cx="990600" cy="849675"/>
+          <a:off x="838200" y="4806270"/>
+          <a:ext cx="914400" cy="830625"/>
           <a:chOff x="419100" y="6475050"/>
           <a:chExt cx="990600" cy="849675"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="直方体 8"/>
+          <xdr:cNvPr id="9" name="直方体 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7724,7 +8130,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="直方体 27"/>
+          <xdr:cNvPr id="28" name="直方体 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7775,7 +8187,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="フローチャート : 抜出し 28"/>
+          <xdr:cNvPr id="29" name="フローチャート : 抜出し 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7812,7 +8230,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="フローチャート: データ 29"/>
+          <xdr:cNvPr id="30" name="フローチャート: データ 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7865,7 +8289,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7926,7 +8356,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="下矢印 32"/>
+        <xdr:cNvPr id="33" name="下矢印 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7978,7 +8414,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="下矢印 34"/>
+        <xdr:cNvPr id="35" name="下矢印 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8032,7 +8474,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="下矢印 35"/>
+        <xdr:cNvPr id="36" name="下矢印 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8086,7 +8534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="下矢印 36"/>
+        <xdr:cNvPr id="37" name="下矢印 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8140,20 +8594,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="38" name="グループ化 37"/>
+        <xdr:cNvPr id="38" name="グループ化 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4943475" y="1771650"/>
-          <a:ext cx="762000" cy="838200"/>
+          <a:off x="4410075" y="1733550"/>
+          <a:ext cx="685800" cy="819150"/>
           <a:chOff x="1219200" y="5572125"/>
           <a:chExt cx="762000" cy="838200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="39" name="グループ化 38"/>
+          <xdr:cNvPr id="39" name="グループ化 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8166,7 +8632,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="二等辺三角形 40"/>
+            <xdr:cNvPr id="41" name="二等辺三角形 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8205,7 +8677,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="スマイル 41"/>
+            <xdr:cNvPr id="42" name="スマイル 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8245,7 +8723,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+          <xdr:cNvPr id="40" name="正方形/長方形 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8303,20 +8787,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="グループ化 42"/>
+        <xdr:cNvPr id="43" name="グループ化 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4943475" y="2695575"/>
-          <a:ext cx="762000" cy="838200"/>
+          <a:off x="4410075" y="2638425"/>
+          <a:ext cx="685800" cy="819150"/>
           <a:chOff x="1219200" y="5572125"/>
           <a:chExt cx="762000" cy="838200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="44" name="グループ化 43"/>
+          <xdr:cNvPr id="44" name="グループ化 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8329,7 +8825,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="二等辺三角形 45"/>
+            <xdr:cNvPr id="46" name="二等辺三角形 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8368,7 +8870,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="スマイル 46"/>
+            <xdr:cNvPr id="47" name="スマイル 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8408,7 +8916,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+          <xdr:cNvPr id="45" name="正方形/長方形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8466,20 +8980,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="グループ化 47"/>
+        <xdr:cNvPr id="48" name="グループ化 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4943475" y="3581400"/>
-          <a:ext cx="762000" cy="838200"/>
+          <a:off x="4410075" y="3505200"/>
+          <a:ext cx="685800" cy="819150"/>
           <a:chOff x="1219200" y="5572125"/>
           <a:chExt cx="762000" cy="838200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="49" name="グループ化 48"/>
+          <xdr:cNvPr id="49" name="グループ化 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8492,7 +9018,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="二等辺三角形 50"/>
+            <xdr:cNvPr id="51" name="二等辺三角形 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8531,7 +9063,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="52" name="スマイル 51"/>
+            <xdr:cNvPr id="52" name="スマイル 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8571,7 +9109,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+          <xdr:cNvPr id="50" name="正方形/長方形 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8629,7 +9173,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58"/>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8667,7 +9217,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59"/>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8705,7 +9261,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60"/>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8743,7 +9305,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8809,7 +9377,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8866,7 +9440,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8924,7 +9504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="図 80"/>
+        <xdr:cNvPr id="81" name="図 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8964,6 +9550,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1028" name="emb37F44757" descr=" ">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -9006,7 +9597,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="図 81"/>
+        <xdr:cNvPr id="82" name="図 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9044,7 +9641,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9102,20 +9705,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="88" name="グループ化 87"/>
+        <xdr:cNvPr id="88" name="グループ化 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="600074" y="2743196"/>
-          <a:ext cx="542925" cy="487725"/>
+          <a:off x="600074" y="2686046"/>
+          <a:ext cx="466725" cy="476295"/>
           <a:chOff x="419100" y="6458125"/>
           <a:chExt cx="990600" cy="866600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="直方体 88"/>
+          <xdr:cNvPr id="89" name="直方体 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9166,7 +9781,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="直方体 89"/>
+          <xdr:cNvPr id="90" name="直方体 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9217,7 +9838,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="フローチャート : 抜出し 90"/>
+          <xdr:cNvPr id="91" name="フローチャート : 抜出し 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9254,7 +9881,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="フローチャート: データ 91"/>
+          <xdr:cNvPr id="92" name="フローチャート: データ 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9307,20 +9940,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="93" name="グループ化 92"/>
+        <xdr:cNvPr id="93" name="グループ化 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="133349" y="2752721"/>
-          <a:ext cx="542925" cy="487725"/>
+          <a:off x="133349" y="2691761"/>
+          <a:ext cx="474345" cy="480105"/>
           <a:chOff x="419100" y="6458125"/>
           <a:chExt cx="990600" cy="866600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="直方体 93"/>
+          <xdr:cNvPr id="94" name="直方体 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9371,7 +10016,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="直方体 94"/>
+          <xdr:cNvPr id="95" name="直方体 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9422,7 +10073,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="フローチャート : 抜出し 95"/>
+          <xdr:cNvPr id="96" name="フローチャート : 抜出し 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9459,7 +10116,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="フローチャート: データ 96"/>
+          <xdr:cNvPr id="97" name="フローチャート: データ 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9512,20 +10175,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="98" name="グループ化 97"/>
+        <xdr:cNvPr id="98" name="グループ化 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="76199" y="3086096"/>
-          <a:ext cx="542925" cy="487725"/>
+          <a:off x="76199" y="3021326"/>
+          <a:ext cx="535305" cy="476295"/>
           <a:chOff x="419100" y="6458125"/>
           <a:chExt cx="990600" cy="866600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="直方体 98"/>
+          <xdr:cNvPr id="99" name="直方体 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9576,7 +10251,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="直方体 99"/>
+          <xdr:cNvPr id="100" name="直方体 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9627,7 +10308,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="フローチャート : 抜出し 100"/>
+          <xdr:cNvPr id="101" name="フローチャート : 抜出し 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9664,7 +10351,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="フローチャート: データ 101"/>
+          <xdr:cNvPr id="102" name="フローチャート: データ 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9717,20 +10410,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="103" name="グループ化 102"/>
+        <xdr:cNvPr id="103" name="グループ化 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="552449" y="3086096"/>
-          <a:ext cx="542925" cy="487725"/>
+          <a:off x="552449" y="3021326"/>
+          <a:ext cx="466725" cy="476295"/>
           <a:chOff x="419100" y="6458125"/>
           <a:chExt cx="990600" cy="866600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="直方体 103"/>
+          <xdr:cNvPr id="104" name="直方体 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9781,7 +10486,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="直方体 104"/>
+          <xdr:cNvPr id="105" name="直方体 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9832,7 +10543,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="フローチャート : 抜出し 105"/>
+          <xdr:cNvPr id="106" name="フローチャート : 抜出し 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9869,7 +10586,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="フローチャート: データ 106"/>
+          <xdr:cNvPr id="107" name="フローチャート: データ 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9922,20 +10645,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="108" name="グループ化 107"/>
+        <xdr:cNvPr id="108" name="グループ化 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1276349" y="3629021"/>
-          <a:ext cx="542925" cy="487725"/>
+          <a:off x="1200149" y="3549011"/>
+          <a:ext cx="466725" cy="476295"/>
           <a:chOff x="419100" y="6458125"/>
           <a:chExt cx="990600" cy="866600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="直方体 108"/>
+          <xdr:cNvPr id="109" name="直方体 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9986,7 +10721,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="直方体 109"/>
+          <xdr:cNvPr id="110" name="直方体 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10037,7 +10778,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="フローチャート : 抜出し 110"/>
+          <xdr:cNvPr id="111" name="フローチャート : 抜出し 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10074,7 +10821,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="フローチャート: データ 111"/>
+          <xdr:cNvPr id="112" name="フローチャート: データ 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10127,7 +10880,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="乗算記号 112"/>
+        <xdr:cNvPr id="113" name="乗算記号 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10191,7 +10950,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="乗算記号 113"/>
+        <xdr:cNvPr id="114" name="乗算記号 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10253,7 +11018,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="乗算記号 114"/>
+        <xdr:cNvPr id="115" name="乗算記号 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10317,7 +11088,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="乗算記号 115"/>
+        <xdr:cNvPr id="116" name="乗算記号 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10381,7 +11158,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10451,7 +11234,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="四角形吹き出し 83"/>
+        <xdr:cNvPr id="84" name="四角形吹き出し 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10511,7 +11300,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="下矢印 119"/>
+        <xdr:cNvPr id="120" name="下矢印 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10567,6 +11362,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1030" name="emb64DD50C40" descr=" ">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -10611,6 +11411,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1031" name="emb64DD50C40" descr=" ">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -10653,7 +11458,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="下矢印 125"/>
+        <xdr:cNvPr id="126" name="下矢印 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10707,7 +11518,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="122" name="図 121"/>
+        <xdr:cNvPr id="122" name="図 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10750,7 +11567,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="右矢印 1"/>
+        <xdr:cNvPr id="2" name="右矢印 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10799,7 +11622,13 @@
     <xdr:ext cx="700000" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10846,7 +11675,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10888,7 +11717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10921,9 +11750,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10956,6 +11802,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11131,25 +11994,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -11167,21 +12030,21 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="25"/>
       <c r="D3" s="12"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="24"/>
       <c r="C4" s="26"/>
       <c r="D4" s="12"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="24">
         <v>1950</v>
@@ -11194,7 +12057,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="24"/>
       <c r="C6" s="26"/>
@@ -11203,7 +12066,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="24">
         <v>1954</v>
@@ -11214,7 +12077,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="24"/>
       <c r="C8" s="27"/>
@@ -11223,14 +12086,14 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="24"/>
       <c r="C9" s="27"/>
       <c r="D9" s="12"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="24"/>
       <c r="C10" s="27"/>
@@ -11239,7 +12102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="24"/>
       <c r="C11" s="27"/>
@@ -11248,14 +12111,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="24"/>
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13">
         <v>1973</v>
@@ -11268,7 +12131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="D14" s="37" t="s">
@@ -11276,7 +12139,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="D15" s="37" t="s">
@@ -11284,7 +12147,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="D16" s="37" t="s">
@@ -11292,7 +12155,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13">
         <v>1978</v>
@@ -11303,13 +12166,13 @@
       <c r="D17" s="18"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="D18" s="15"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>1980</v>
       </c>
@@ -11317,7 +12180,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
         <v>1981</v>
       </c>
@@ -11325,7 +12188,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" s="38" t="s">
         <v>202</v>
       </c>
@@ -11333,7 +12196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="C22" s="38" t="s">
         <v>180</v>
       </c>
@@ -11344,17 +12207,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" s="38" t="s">
         <v>203</v>
       </c>
@@ -11362,12 +12225,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
         <v>1985</v>
       </c>
@@ -11375,7 +12238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
         <v>14</v>
       </c>
@@ -11383,17 +12246,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" s="38" t="s">
         <v>206</v>
       </c>
@@ -11401,7 +12264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
         <v>195</v>
       </c>
@@ -11409,27 +12272,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D35" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
         <v>9</v>
       </c>
@@ -11437,12 +12300,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D38" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="7">
         <v>1989</v>
       </c>
@@ -11456,7 +12319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C40" s="6" t="s">
         <v>68</v>
       </c>
@@ -11464,7 +12327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="7">
         <v>1990</v>
       </c>
@@ -11475,7 +12338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C42" s="6" t="s">
         <v>70</v>
       </c>
@@ -11486,37 +12349,37 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D43" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D44" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D45" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D46" s="39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D47" s="39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D48" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="7">
         <v>1991</v>
       </c>
@@ -11524,12 +12387,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D50" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D51" s="39" t="s">
         <v>205</v>
       </c>
@@ -11537,17 +12400,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D52" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D53" s="39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D54" s="8" t="s">
         <v>104</v>
       </c>
@@ -11555,10 +12418,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E55" s="11"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="7">
         <v>1997</v>
       </c>
@@ -11566,12 +12429,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D58" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="7">
         <v>1999</v>
       </c>
@@ -11582,7 +12445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="7">
         <v>2000</v>
       </c>
@@ -11593,12 +12456,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D61" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="7">
         <v>2001</v>
       </c>
@@ -11609,7 +12472,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C63" s="6" t="s">
         <v>90</v>
       </c>
@@ -11620,12 +12483,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C64" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="7">
         <v>2002</v>
       </c>
@@ -11633,7 +12496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="7">
         <v>2005</v>
       </c>
@@ -11641,7 +12504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="7">
         <v>2006</v>
       </c>
@@ -11652,12 +12515,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D68" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="7">
         <v>2007</v>
       </c>
@@ -11668,7 +12531,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="7">
         <v>2008</v>
       </c>
@@ -11679,7 +12542,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="7">
         <v>2009</v>
       </c>
@@ -11690,17 +12553,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E72" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E73" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="7">
         <v>2011</v>
       </c>
@@ -11711,7 +12574,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="7">
         <v>2012</v>
       </c>
@@ -11722,22 +12585,22 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D76" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D77" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D78" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D79" s="8" t="s">
         <v>102</v>
       </c>
@@ -11751,25 +12614,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F81"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="39.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -11787,21 +12650,21 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="25"/>
       <c r="D3" s="12"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="24"/>
       <c r="C4" s="26"/>
       <c r="D4" s="12"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="24">
         <v>1950</v>
@@ -11814,7 +12677,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="24"/>
       <c r="C6" s="26"/>
@@ -11823,7 +12686,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="24">
         <v>1954</v>
@@ -11834,7 +12697,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="24"/>
       <c r="C8" s="27"/>
@@ -11843,14 +12706,14 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="24"/>
       <c r="C9" s="27"/>
       <c r="D9" s="12"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="24">
         <v>1958</v>
@@ -11863,7 +12726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="24">
         <v>1964</v>
@@ -11876,7 +12739,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="24">
         <v>1965</v>
@@ -11887,7 +12750,7 @@
       </c>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13">
         <v>1973</v>
@@ -11900,7 +12763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="D14" s="15" t="s">
@@ -11908,7 +12771,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="D15" s="15" t="s">
@@ -11918,7 +12781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="D16" s="15" t="s">
@@ -11928,7 +12791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13">
         <v>1978</v>
@@ -11941,7 +12804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="D18" s="15"/>
@@ -11949,7 +12812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>1980</v>
       </c>
@@ -11960,7 +12823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
         <v>1981</v>
       </c>
@@ -11968,7 +12831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
@@ -11976,7 +12839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
         <v>180</v>
       </c>
@@ -11987,17 +12850,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
@@ -12005,12 +12868,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
         <v>1985</v>
       </c>
@@ -12021,7 +12884,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
         <v>14</v>
       </c>
@@ -12029,22 +12892,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
         <v>59</v>
       </c>
@@ -12052,27 +12915,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
         <v>9</v>
       </c>
@@ -12080,12 +12943,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D38" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="7">
         <v>1989</v>
       </c>
@@ -12099,7 +12962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C40" s="6" t="s">
         <v>68</v>
       </c>
@@ -12107,7 +12970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="7">
         <v>1990</v>
       </c>
@@ -12118,7 +12981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C42" s="6" t="s">
         <v>70</v>
       </c>
@@ -12129,37 +12992,37 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D43" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D44" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D45" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D46" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D47" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D48" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="7">
         <v>1991</v>
       </c>
@@ -12167,12 +13030,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D50" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D51" s="8" t="s">
         <v>66</v>
       </c>
@@ -12180,17 +13043,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D52" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D53" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D54" s="8" t="s">
         <v>104</v>
       </c>
@@ -12198,17 +13061,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E55" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E56" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="7">
         <v>1997</v>
       </c>
@@ -12216,12 +13079,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D58" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="7">
         <v>1999</v>
       </c>
@@ -12232,7 +13095,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="7">
         <v>2000</v>
       </c>
@@ -12243,12 +13106,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D61" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="7">
         <v>2001</v>
       </c>
@@ -12259,7 +13122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C63" s="6" t="s">
         <v>90</v>
       </c>
@@ -12270,12 +13133,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C64" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="7">
         <v>2002</v>
       </c>
@@ -12283,7 +13146,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="7">
         <v>2005</v>
       </c>
@@ -12291,7 +13154,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="7">
         <v>2006</v>
       </c>
@@ -12302,12 +13165,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D68" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="7">
         <v>2007</v>
       </c>
@@ -12318,7 +13181,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="7">
         <v>2008</v>
       </c>
@@ -12329,7 +13192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="7">
         <v>2009</v>
       </c>
@@ -12340,17 +13203,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E72" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E73" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="7">
         <v>2011</v>
       </c>
@@ -12361,7 +13224,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="7">
         <v>2012</v>
       </c>
@@ -12372,27 +13235,27 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D76" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D77" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D78" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D79" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="7">
         <v>2014</v>
       </c>
@@ -12409,24 +13272,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="2"/>
     </row>
   </sheetData>
@@ -12438,29 +13301,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="E12:P19"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="12" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="5:16" x14ac:dyDescent="0.2">
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E14" s="2"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="17" spans="10:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="10:15" x14ac:dyDescent="0.2">
       <c r="O17" s="1"/>
     </row>
-    <row r="19" spans="10:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="10:15" x14ac:dyDescent="0.2">
       <c r="J19" s="1"/>
     </row>
   </sheetData>
@@ -12472,26 +13335,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>42</v>
       </c>
@@ -12500,46 +13363,46 @@
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>188</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>47</v>
       </c>
@@ -12552,19 +13415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>81</v>
       </c>
@@ -12572,7 +13435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -12586,7 +13449,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>78</v>
       </c>
@@ -12594,7 +13457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>79</v>
       </c>
@@ -12602,12 +13465,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>72</v>
       </c>
@@ -12618,7 +13481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>74</v>
       </c>
@@ -12626,7 +13489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>86</v>
       </c>
@@ -12634,7 +13497,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>78</v>
       </c>
@@ -12642,25 +13505,26 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>130</v>
       </c>
@@ -12668,7 +13532,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>122</v>
       </c>
@@ -12677,7 +13541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -12688,7 +13552,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>124</v>
       </c>
@@ -12699,93 +13563,93 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="23"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="22" t="s">
         <v>139</v>
       </c>
@@ -12793,75 +13657,76 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="2.25" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="2.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C7" s="30" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C8" s="30" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" s="29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" s="29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>156</v>
       </c>
@@ -12869,7 +13734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>158</v>
       </c>
@@ -12877,67 +13742,67 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" s="29" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" s="29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>173</v>
       </c>
@@ -12945,5 +13810,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21699C4F-38A2-4E25-9E01-3174E197F244}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O16:O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/経済.xlsx
+++ b/経済.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentokobayashi\Documents\ThirdRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F0FF4EDD-F9B8-4E73-9E2D-B10003912152}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0C0932A1-2EE8-4CC9-A172-9B1421EE5729}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="108" windowWidth="9672" windowHeight="7380" tabRatio="690" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="208">
   <si>
     <t>年代</t>
     <rPh sb="0" eb="2">
@@ -4258,6 +4258,13 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチ切ったで</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13816,14 +13823,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21699C4F-38A2-4E25-9E01-3174E197F244}">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O16:O17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
